--- a/data/pore pressure.xlsx
+++ b/data/pore pressure.xlsx
@@ -9,15 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8205"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8205" activeTab="5"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
-    <sheet name="Sheet6" sheetId="7" r:id="rId6"/>
+    <sheet name="f1" sheetId="1" r:id="rId1"/>
+    <sheet name="f2" sheetId="2" r:id="rId2"/>
+    <sheet name="f3" sheetId="3" r:id="rId3"/>
+    <sheet name="f4" sheetId="4" r:id="rId4"/>
+    <sheet name="f5" sheetId="5" r:id="rId5"/>
+    <sheet name="f6" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -505,7 +505,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
@@ -6550,7 +6550,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
